--- a/input/stopcodon/04Feb2019/lista1a2.xlsx
+++ b/input/stopcodon/04Feb2019/lista1a2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Wen-Juan/Dropbox (Amherst College)/Amherst_postdoc/github/Haploidselection_and_dosagecompensation_in_Microbotryum/input/stopcodon/04Feb2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{432190E5-55F1-2543-ABDB-8DA8B385E2A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{37CCD1EB-0BFF-0C4C-A5DD-EDAA898A1300}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="440" windowWidth="30340" windowHeight="17840"/>
+    <workbookView xWindow="800" yWindow="440" windowWidth="40160" windowHeight="22600"/>
   </bookViews>
   <sheets>
     <sheet name="lista1a2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="192">
   <si>
     <t>MvSl-1064-A1-R4_A1g00118</t>
   </si>
@@ -352,9 +352,6 @@
     <t>a2</t>
   </si>
   <si>
-    <t>stopcodon</t>
-  </si>
-  <si>
     <t>indels_prot</t>
   </si>
   <si>
@@ -370,9 +367,6 @@
     <t>indel_haploid</t>
   </si>
   <si>
-    <t>5+1</t>
-  </si>
-  <si>
     <t>a1,a2</t>
   </si>
   <si>
@@ -382,18 +376,12 @@
     <t>1+2</t>
   </si>
   <si>
-    <t>maybe</t>
-  </si>
-  <si>
     <t>a1: 5+1</t>
   </si>
   <si>
     <t>a1:42+6, a2:2+5+8</t>
   </si>
   <si>
-    <t>myabe</t>
-  </si>
-  <si>
     <t>a1: 19+22, a2: 25+2</t>
   </si>
   <si>
@@ -418,9 +406,6 @@
     <t>a1:2, a2:10</t>
   </si>
   <si>
-    <t>maybe a1</t>
-  </si>
-  <si>
     <t>early part was not aligning well</t>
   </si>
   <si>
@@ -433,9 +418,6 @@
     <t>maybe, a1 missing 45 at the end</t>
   </si>
   <si>
-    <t>a2 missing beginning and end</t>
-  </si>
-  <si>
     <t>a1:4+16,2+12,3, a2:19+4+4+58</t>
   </si>
   <si>
@@ -457,21 +439,9 @@
     <t>a2 beginning not align well</t>
   </si>
   <si>
-    <t>a1 missing 3 at the end</t>
-  </si>
-  <si>
-    <t>a1 missing 129 at the end</t>
-  </si>
-  <si>
-    <t>a1 missing 191 at the end, and aligning at the end is not well</t>
-  </si>
-  <si>
     <t>a1:17+57, a2:36+4+4+20</t>
   </si>
   <si>
-    <t>a1 missing 57 at the end and the last big chunk was not aligning well</t>
-  </si>
-  <si>
     <t>4+6</t>
   </si>
   <si>
@@ -481,42 +451,24 @@
     <t>9+3+16+14</t>
   </si>
   <si>
-    <t>a2 missing the beginning of 59</t>
-  </si>
-  <si>
     <t>4,10,46</t>
   </si>
   <si>
-    <t>a1 missing 46 aa at the end</t>
-  </si>
-  <si>
     <t>a1:18,28, a2:31</t>
   </si>
   <si>
-    <t>a2 missing 31 aa at the end, and it was bad aligning at the end</t>
-  </si>
-  <si>
     <t>a1:8,2,56, a2:1,6</t>
   </si>
   <si>
-    <t>a1 missing 56 aa at the end, and the end had bad alignment</t>
-  </si>
-  <si>
     <t>27,25, 68</t>
   </si>
   <si>
-    <t>a1 missing last 68 aa at the end, and the end had bad alignment</t>
-  </si>
-  <si>
     <t>a1:7, a2:2,2</t>
   </si>
   <si>
     <t>a1:1,4,55, a2:19,4,1</t>
   </si>
   <si>
-    <t xml:space="preserve">a1 missing 55 aa at the end </t>
-  </si>
-  <si>
     <t>a1:40,24,12, a2:11,9,26</t>
   </si>
   <si>
@@ -566,6 +518,84 @@
   </si>
   <si>
     <t>a1:41,1, a2:8</t>
+  </si>
+  <si>
+    <t>with start codon</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>a1:5.5,15, a2:5</t>
+  </si>
+  <si>
+    <t>a1 missing 15 aa at the end</t>
+  </si>
+  <si>
+    <t>a1 (TAG)</t>
+  </si>
+  <si>
+    <t>early_stopcodon</t>
+  </si>
+  <si>
+    <t>a1 missing many aa at the end</t>
+  </si>
+  <si>
+    <t>a1 missing many aa at the beginning</t>
+  </si>
+  <si>
+    <t>a1 (TGA)</t>
+  </si>
+  <si>
+    <t>a2(TAG)</t>
+  </si>
+  <si>
+    <t>a2 missing many aa at the end</t>
+  </si>
+  <si>
+    <t>a2 (TAG)</t>
+  </si>
+  <si>
+    <t>a2 (TGA)</t>
+  </si>
+  <si>
+    <t>a1 mising many aa at the end</t>
+  </si>
+  <si>
+    <t>a1 (TAA)</t>
+  </si>
+  <si>
+    <t>a2 missing beginning and end, early stop codon and deletion/mutations</t>
+  </si>
+  <si>
+    <t>a2 (TAA)</t>
+  </si>
+  <si>
+    <t>a1 missing 129 at the end (before stop codon there were 36T repeats)</t>
+  </si>
+  <si>
+    <t>a1 missing 191 at the end, and aligning at the end is not well, no shift</t>
+  </si>
+  <si>
+    <t>a1 missing 57 at the end and the last big chunk was not aligning well, indels</t>
+  </si>
+  <si>
+    <t>a2 missing the beginning of 59, no shift</t>
+  </si>
+  <si>
+    <t>a1 missing 46 aa at the end, no shift</t>
+  </si>
+  <si>
+    <t>a2 missing 31 aa at the end, and it was bad aligning at the end, no shift</t>
+  </si>
+  <si>
+    <t>a1 missing 56 aa at the end, and the end had bad alignment, no shift</t>
+  </si>
+  <si>
+    <t>a1 missing last 68 aa at the end, and the end had bad alignment, no shift</t>
+  </si>
+  <si>
+    <t>a1 missing 55 aa at the end, no shift</t>
   </si>
 </sst>
 </file>
@@ -708,7 +738,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -886,6 +916,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1049,7 +1091,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1057,6 +1099,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1412,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,13 +1470,13 @@
     <col min="3" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="26.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="59.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="62.5" customWidth="1"/>
     <col min="9" max="9" width="21.83203125" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -1439,133 +1484,163 @@
         <v>109</v>
       </c>
       <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="H1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H6" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="1">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1574,750 +1649,834 @@
         <v>108</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F8" s="1">
+        <v>129</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="I8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" t="s">
-        <v>109</v>
+        <v>108</v>
+      </c>
+      <c r="F9" s="1">
+        <v>191</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="H9" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="I9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>125</v>
+        <v>139</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="I10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="1">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H12" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="1">
+        <v>8</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="1">
+        <v>17</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
         <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="1">
-        <v>45</v>
-      </c>
-      <c r="G16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" t="s">
+        <v>187</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="1">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>132</v>
+      <c r="F17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="H17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" t="s">
+        <v>135</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H19" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G19" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="G22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>39</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
       </c>
       <c r="C23">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>109</v>
       </c>
-      <c r="H23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="1">
-        <v>17</v>
-      </c>
-      <c r="G24" t="s">
-        <v>108</v>
+      <c r="F24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="I24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="1">
-        <v>6</v>
-      </c>
-      <c r="G25" t="s">
-        <v>114</v>
+      <c r="F25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="H25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+      <c r="I25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="1">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>132</v>
+      <c r="F26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="I26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>108</v>
       </c>
       <c r="F27" s="1">
+        <v>7</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" t="s">
+        <v>108</v>
+      </c>
+      <c r="I29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="1">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="G27" t="s">
-        <v>108</v>
-      </c>
-      <c r="H27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" s="1">
-        <v>191</v>
-      </c>
-      <c r="G28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G29" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G30" t="s">
-        <v>114</v>
-      </c>
-      <c r="H30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31">
+      <c r="G36" t="s">
+        <v>113</v>
+      </c>
+      <c r="H36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
         <v>1</v>
-      </c>
-      <c r="D31" t="s">
-        <v>109</v>
-      </c>
-      <c r="F31" s="1">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G32" t="s">
-        <v>114</v>
-      </c>
-      <c r="H32" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="1">
-        <v>59</v>
-      </c>
-      <c r="H33" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35" t="s">
-        <v>109</v>
-      </c>
-      <c r="H35" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G36" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
       </c>
       <c r="D37" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>160</v>
+      <c r="F37" s="1">
+        <v>1</v>
       </c>
       <c r="G37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37" t="s">
+        <v>113</v>
+      </c>
+      <c r="I37" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="1">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>108</v>
       </c>
-      <c r="H37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38">
+      <c r="F39" s="1">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G38" t="s">
-        <v>114</v>
-      </c>
-      <c r="H38" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" t="s">
-        <v>108</v>
+      <c r="G39" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="H39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="I39" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>109</v>
       </c>
-      <c r="F40" s="1">
-        <v>9</v>
+      <c r="F40" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="G40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2326,44 +2485,47 @@
         <v>109</v>
       </c>
       <c r="F41" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="G41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H41" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="G42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="I42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2372,61 +2534,70 @@
         <v>109</v>
       </c>
       <c r="F43" s="1">
-        <v>86</v>
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
+        <v>113</v>
       </c>
       <c r="H43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="I43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45">
         <v>1</v>
-      </c>
-      <c r="D44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F44" s="1">
-        <v>77</v>
-      </c>
-      <c r="H44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
       </c>
       <c r="D45" t="s">
         <v>109</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>168</v>
+      <c r="F45" s="1">
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H45" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2435,64 +2606,70 @@
         <v>109</v>
       </c>
       <c r="F46" s="1">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>113</v>
       </c>
       <c r="H46" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="G47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H47" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>172</v>
+      <c r="F48" s="1">
+        <v>86</v>
       </c>
       <c r="G48" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="I48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -2501,131 +2678,140 @@
         <v>109</v>
       </c>
       <c r="F49" s="1">
+        <v>77</v>
+      </c>
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" t="s">
+        <v>151</v>
+      </c>
+      <c r="I49" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="G49" t="s">
-        <v>114</v>
-      </c>
-      <c r="H49" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
       <c r="D50" t="s">
-        <v>117</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>174</v>
+        <v>109</v>
+      </c>
+      <c r="F50" s="1">
+        <v>14</v>
       </c>
       <c r="G50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50" t="s">
+        <v>154</v>
+      </c>
+      <c r="I50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G51" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
         <v>109</v>
       </c>
-      <c r="H50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G51" t="s">
-        <v>108</v>
-      </c>
-      <c r="H51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>100</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>101</v>
       </c>
-      <c r="C52">
+      <c r="C53">
         <v>5</v>
       </c>
-      <c r="D52" t="s">
-        <v>117</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="G52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>102</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>103</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>109</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F54" s="1">
         <v>19</v>
       </c>
-      <c r="G53" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G54" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H54" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -2636,19 +2822,22 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:I55">
+    <sortCondition ref="G2:G55"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>